--- a/Data/ABACUS.xlsx
+++ b/Data/ABACUS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -226,12 +226,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -255,16 +268,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -307,7 +313,34 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1503,205 +1536,205 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="409.6" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="258" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="243" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="242.25" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="159.75" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="176.25" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="102" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="102" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="153" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="153" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="153" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="102" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="170.1" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="102" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="76.5" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="76.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="76.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="76.5" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="76.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="76.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="76.5" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="76.5" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="168.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="168.75" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="5"/>
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="15.95" customHeight="1">
       <c r="A29" s="2"/>
@@ -1713,9 +1746,11 @@
       <c r="A31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B12"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ABACUS.xlsx
+++ b/Data/ABACUS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>11/19/2021-11/23/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -199,15 +196,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -238,6 +235,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -825,8 +825,8 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="102.0" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
@@ -853,8 +853,8 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="169.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -881,8 +881,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="102.0" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -909,10 +909,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="76.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -937,8 +937,8 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="76.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -965,10 +965,10 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="76.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="14"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -993,10 +993,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="76.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="14"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1021,10 +1021,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="76.5" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="14"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1049,10 +1049,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="76.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="14"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1077,10 +1077,10 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="76.5" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="14"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1105,10 +1105,10 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="76.5" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="14"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1133,10 +1133,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="76.5" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="14"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1218,13 +1218,11 @@
     </row>
     <row r="27" ht="168.75" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1275,7 +1273,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1303,7 +1301,7 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1331,7 +1329,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
